--- a/urls.xlsx
+++ b/urls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sabbir\Status Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A78B2B-45ED-4F71-A2EB-8B9B0F2B8D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9A8CE6-17E4-48B5-87BC-0F62964C57D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AbbviePro" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="167">
   <si>
     <t>country</t>
   </si>
@@ -510,6 +510,30 @@
   </si>
   <si>
     <t>https://www.arzneimittelsuche.abbvie.de/</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/uy/es.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/py/es.html</t>
+  </si>
+  <si>
+    <t>https://medical.abbviepro.com/bal/lav.html</t>
+  </si>
+  <si>
+    <t>https://medical.abbviepro.com/bal/lit.html</t>
+  </si>
+  <si>
+    <t>Lithuania-Everest</t>
+  </si>
+  <si>
+    <t>Medical Latvia</t>
   </si>
 </sst>
 </file>
@@ -562,7 +586,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -613,12 +637,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -676,12 +711,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -959,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07722C94-D152-45B7-9A90-4D5C23E83CF0}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1296,169 +1382,196 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>67</v>
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>78</v>
+        <v>66</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>80</v>
+      <c r="A14" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>84</v>
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>85</v>
+        <v>22</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B21">
+    <sortCondition ref="A2:A21"/>
+  </sortState>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.letstalkeczema.co.uk/" xr:uid="{78C56DCB-B9E5-44E6-A4CA-19FF1460E7D3}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.neurodermitis-wen-juckts.de/" xr:uid="{8949329B-54A1-4E48-9E1B-3A783B539FBF}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.atopy-kaiwa.com/" xr:uid="{09A85D0F-FF6A-4996-8473-5A8234C79224}"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://www.matactiqueeczemaatopique.fr/" xr:uid="{6E358BCE-6AA9-498F-B988-3C9E19AA6AA8}"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://www.neurodermitis-online.at/" xr:uid="{55FEC634-2DFC-4632-8053-4D331F8233C9}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{D2B8DB77-BE81-4F0A-8989-EEBC26D13E02}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{4D01FC4B-6113-4775-B4CF-6B3F11B6CC8C}"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://www.dermatit.pro/" xr:uid="{EA87FDF6-73CC-424A-88B0-CED465E21C19}"/>
-    <hyperlink ref="B10" r:id="rId9" display="https://www.constitutioneeleczeem.nl/" xr:uid="{972C14B5-3076-44E0-9920-45A1C1A86250}"/>
-    <hyperlink ref="B11" r:id="rId10" display="https://www.my-eczema.be/" xr:uid="{C2A6B320-CEF6-4F15-9AB9-8872F23D78E2}"/>
-    <hyperlink ref="B12" r:id="rId11" display="https://www.jsematopik.cz/" xr:uid="{8772ADE5-5AFF-4E95-9AF7-9806BB8C7FCF}"/>
-    <hyperlink ref="B13" r:id="rId12" display="https://www.neskrabsa.sk/" xr:uid="{8AE50169-992B-4003-BE1F-483200077A73}"/>
-    <hyperlink ref="B14" r:id="rId13" display="https://www.atopiskdermatit.se/" xr:uid="{84CD5083-1FAF-42D5-8B3D-794DB82119FB}"/>
-    <hyperlink ref="B15" r:id="rId14" display="https://www.skipad.gr/" xr:uid="{2E78903A-7B75-4802-A0CE-F03412736DDD}"/>
-    <hyperlink ref="B17" r:id="rId15" display="https://www.ekcematema.hu/" xr:uid="{D763467A-AC73-413E-A719-43E2FA7AF6C5}"/>
-    <hyperlink ref="B18" r:id="rId16" display="https://atopikdermatitkonusalim.com/" xr:uid="{E3F3C1A6-5B88-456E-A779-85F31705BE71}"/>
-    <hyperlink ref="B19" r:id="rId17" display="https://www.hablemosdedermatitisatopica.com.ar/" xr:uid="{8D80430C-9C9E-4B9C-891A-0991E7ED9F81}"/>
-    <hyperlink ref="B16" r:id="rId18" xr:uid="{9E9333C3-15D5-4FE1-87A3-D2E20EA1B889}"/>
+    <hyperlink ref="B20" r:id="rId1" display="https://www.letstalkeczema.co.uk/" xr:uid="{78C56DCB-B9E5-44E6-A4CA-19FF1460E7D3}"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://www.neurodermitis-wen-juckts.de/" xr:uid="{8949329B-54A1-4E48-9E1B-3A783B539FBF}"/>
+    <hyperlink ref="B12" r:id="rId3" display="https://www.atopy-kaiwa.com/" xr:uid="{09A85D0F-FF6A-4996-8473-5A8234C79224}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.matactiqueeczemaatopique.fr/" xr:uid="{6E358BCE-6AA9-498F-B988-3C9E19AA6AA8}"/>
+    <hyperlink ref="B16" r:id="rId5" xr:uid="{D2B8DB77-BE81-4F0A-8989-EEBC26D13E02}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{4D01FC4B-6113-4775-B4CF-6B3F11B6CC8C}"/>
+    <hyperlink ref="B15" r:id="rId7" display="https://www.dermatit.pro/" xr:uid="{EA87FDF6-73CC-424A-88B0-CED465E21C19}"/>
+    <hyperlink ref="B13" r:id="rId8" display="https://www.constitutioneeleczeem.nl/" xr:uid="{972C14B5-3076-44E0-9920-45A1C1A86250}"/>
+    <hyperlink ref="B5" r:id="rId9" display="https://www.jsematopik.cz/" xr:uid="{8772ADE5-5AFF-4E95-9AF7-9806BB8C7FCF}"/>
+    <hyperlink ref="B17" r:id="rId10" display="https://www.neskrabsa.sk/" xr:uid="{8AE50169-992B-4003-BE1F-483200077A73}"/>
+    <hyperlink ref="B18" r:id="rId11" display="https://www.atopiskdermatit.se/" xr:uid="{84CD5083-1FAF-42D5-8B3D-794DB82119FB}"/>
+    <hyperlink ref="B9" r:id="rId12" display="https://www.skipad.gr/" xr:uid="{2E78903A-7B75-4802-A0CE-F03412736DDD}"/>
+    <hyperlink ref="B10" r:id="rId13" display="https://www.ekcematema.hu/" xr:uid="{D763467A-AC73-413E-A719-43E2FA7AF6C5}"/>
+    <hyperlink ref="B19" r:id="rId14" display="https://atopikdermatitkonusalim.com/" xr:uid="{E3F3C1A6-5B88-456E-A779-85F31705BE71}"/>
+    <hyperlink ref="B11" r:id="rId15" xr:uid="{9E9333C3-15D5-4FE1-87A3-D2E20EA1B889}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{F71C2041-E2EC-4467-B8B7-3FEC06EA36F0}"/>
+    <hyperlink ref="B14" r:id="rId17" xr:uid="{188D6C81-2855-466C-BC8E-E38D720AA6D9}"/>
+    <hyperlink ref="B4" r:id="rId18" display="https://www.my-eczema.be/" xr:uid="{C2A6B320-CEF6-4F15-9AB9-8872F23D78E2}"/>
+    <hyperlink ref="B3" r:id="rId19" display="https://www.neurodermitis-online.at/" xr:uid="{55FEC634-2DFC-4632-8053-4D331F8233C9}"/>
+    <hyperlink ref="B2" r:id="rId20" display="https://www.hablemosdedermatitisatopica.com.ar/" xr:uid="{8D80430C-9C9E-4B9C-891A-0991E7ED9F81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1469,7 +1582,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1579,7 +1692,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1614,15 +1727,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605E6DC0-9D04-4798-BAEB-83011D06DA65}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" customWidth="1"/>
     <col min="2" max="2" width="39.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1676,7 +1789,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>108</v>
@@ -1690,12 +1803,36 @@
         <v>109</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{50E22AA5-AB6D-46A8-BC6C-7487565AF1CA}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{24B975C5-0FFB-4666-9F40-C135F5F484CB}"/>
     <hyperlink ref="B4" r:id="rId3" display="https://www.abbviescience.com/" xr:uid="{4251FC8D-DF5F-499B-8186-63F6D08269CD}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{C002EE31-8CB4-483A-BC7F-C09BA2787303}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{DBC3CAEA-16C4-4BA0-9F40-D19FC3E2D25A}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{90613EBE-1609-4F5F-9D79-0970F34D9504}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1706,7 +1843,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1753,7 +1890,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1800,7 +1937,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1918,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EFB902-8104-41A8-A93E-7D494DEA963E}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2055,13 +2192,13 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{370E66A7-DBF8-4425-BF80-07E9942EB4B2}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{1005FEF0-CC93-4471-9BFD-D3633A40FEB3}"/>
     <hyperlink ref="B6" r:id="rId4" display="https://www.skyrizi.co.nz/" xr:uid="{B97C715D-DC94-4772-B9EA-13AD3F0A5E8B}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{4C902691-C40E-4EA5-A6A7-999F30B8856C}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{DC22382D-4AA1-4394-B715-A1A6B1745185}"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://demo.abbviepro.com/" xr:uid="{A9FA3ADD-4753-4864-8AB3-AE31958FF6EF}"/>
-    <hyperlink ref="B10" r:id="rId8" display="https://www.acne-inversa.at/" xr:uid="{69770918-E16D-407F-8F9D-C436469A4863}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{92F36F9D-CDAA-41DA-9CA9-9B0A8A067C9A}"/>
-    <hyperlink ref="B12" r:id="rId10" display="https://www.produodopapatient.se/" xr:uid="{2435E1A2-5EEB-48C4-8BB6-22BBB33F0CD0}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{84E88C26-AA76-476B-8CDA-1B3DF1A8F885}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{DC22382D-4AA1-4394-B715-A1A6B1745185}"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://demo.abbviepro.com/" xr:uid="{A9FA3ADD-4753-4864-8AB3-AE31958FF6EF}"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.acne-inversa.at/" xr:uid="{69770918-E16D-407F-8F9D-C436469A4863}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{92F36F9D-CDAA-41DA-9CA9-9B0A8A067C9A}"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://www.produodopapatient.se/" xr:uid="{2435E1A2-5EEB-48C4-8BB6-22BBB33F0CD0}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{84E88C26-AA76-476B-8CDA-1B3DF1A8F885}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{4C902691-C40E-4EA5-A6A7-999F30B8856C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
